--- a/R4事業復活支援金計算(仮).xlsx
+++ b/R4事業復活支援金計算(仮).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D89A33C-8D96-47E8-9DD0-E0B6E584441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6870A6BA-2FA4-4B25-A362-190CEEBF91E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="720" windowWidth="25200" windowHeight="14940" xr2:uid="{725311F6-54F0-4F61-8F96-4772FDD08828}"/>
+    <workbookView xWindow="2760" yWindow="660" windowWidth="25200" windowHeight="14940" activeTab="1" xr2:uid="{725311F6-54F0-4F61-8F96-4772FDD08828}"/>
   </bookViews>
   <sheets>
     <sheet name="判定入力" sheetId="1" r:id="rId1"/>
@@ -753,10 +753,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDEEA92-7FFE-4A97-B44B-CBE082206B00}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2 D8"/>
     </sheetView>
   </sheetViews>
@@ -1455,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0B4AAD-D0B9-45A5-8888-1019F4C1F03B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1492,10 +1488,10 @@
         <v>19</v>
       </c>
       <c r="B2" s="22">
-        <v>25380</v>
+        <v>24000</v>
       </c>
       <c r="C2" s="23">
-        <v>37708</v>
+        <v>20000</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -1518,36 +1514,36 @@
         <v>5</v>
       </c>
       <c r="B4" s="25">
-        <v>34639</v>
+        <v>35000</v>
       </c>
       <c r="C4" s="26">
-        <v>14386</v>
+        <v>18000</v>
       </c>
       <c r="D4" s="26">
-        <v>29319</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="26">
-        <v>13598</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="26">
-        <v>34336</v>
+        <v>35000</v>
       </c>
       <c r="G4" s="6">
         <f>SUM(B4:F4)</f>
-        <v>126278</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
-        <v>327934</v>
+        <v>330000</v>
       </c>
       <c r="B5" s="9">
         <f>IF(B$2&lt;&gt;"",(B$2-B4)/B4*100,"")</f>
-        <v>-26.72998643147897</v>
+        <v>-31.428571428571427</v>
       </c>
       <c r="C5" s="10">
         <f>IF(C$2&lt;&gt;"",(C$2-C4)/C4*100,"")</f>
-        <v>162.11594605866816</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="D5" s="10" t="str">
         <f>IF(D$2&lt;&gt;"",(D$2-D4)/D4*100,"")</f>
@@ -1568,36 +1564,36 @@
         <v>6</v>
       </c>
       <c r="B6" s="25">
-        <v>20878</v>
+        <v>21000</v>
       </c>
       <c r="C6" s="26">
-        <v>19569</v>
+        <v>20000</v>
       </c>
       <c r="D6" s="26">
-        <v>26310</v>
+        <v>26000</v>
       </c>
       <c r="E6" s="26">
-        <v>15551</v>
+        <v>18000</v>
       </c>
       <c r="F6" s="26">
-        <v>27172</v>
+        <v>28000</v>
       </c>
       <c r="G6" s="6">
         <f>SUM(B6:F6)</f>
-        <v>109480</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
-        <v>263693</v>
+        <v>280000</v>
       </c>
       <c r="B7" s="9">
         <f>IF(B$2&lt;&gt;"",(B$2-B6)/B6*100,"")</f>
-        <v>21.563368138710604</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="C7" s="10">
         <f>IF(C$2&lt;&gt;"",(C$2-C6)/C6*100,"")</f>
-        <v>92.692523889825736</v>
+        <v>0</v>
       </c>
       <c r="D7" s="10" t="str">
         <f>IF(D$2&lt;&gt;"",(D$2-D6)/D6*100,"")</f>
@@ -1618,36 +1614,36 @@
         <v>7</v>
       </c>
       <c r="B8" s="25">
-        <v>29365</v>
+        <v>28000</v>
       </c>
       <c r="C8" s="26">
-        <v>28849</v>
+        <v>27000</v>
       </c>
       <c r="D8" s="26">
-        <v>36553</v>
+        <v>35000</v>
       </c>
       <c r="E8" s="26">
-        <v>26427</v>
+        <v>24000</v>
       </c>
       <c r="F8" s="26">
-        <v>53658</v>
+        <v>50000</v>
       </c>
       <c r="G8" s="6">
         <f>SUM(B8:F8)</f>
-        <v>174852</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
-        <v>380228</v>
+        <v>380000</v>
       </c>
       <c r="B9" s="9">
         <f>IF(B$2&lt;&gt;"",(B$2-B8)/B8*100,"")</f>
-        <v>-13.570577217776265</v>
+        <v>-14.285714285714285</v>
       </c>
       <c r="C9" s="10">
         <f>IF(C$2&lt;&gt;"",(C$2-C8)/C8*100,"")</f>
-        <v>30.708170127214114</v>
+        <v>-25.925925925925924</v>
       </c>
       <c r="D9" s="10" t="str">
         <f>IF(D$2&lt;&gt;"",(D$2-D8)/D8*100,"")</f>
@@ -1713,11 +1709,11 @@
       </c>
       <c r="C13" s="14">
         <f ca="1">_xlfn.LET( _xlpm.mAREA, HLOOKUP(C12,{"11月","12月","1月","2月","3月";"B","C","D","E","F"},2),MIN(INDIRECT(_xlfn.CONCAT(_xlpm.mAREA,"4:",_xlpm.mAREA,"9"))))</f>
-        <v>-26.72998643147897</v>
+        <v>-31.428571428571427</v>
       </c>
       <c r="D13" s="15" t="str">
         <f ca="1">IF(C13&gt;-30,"受給対象外","")</f>
-        <v>受給対象外</v>
+        <v/>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1728,9 +1724,9 @@
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="str" cm="1">
+      <c r="C14" s="11" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">_xlfn.XLOOKUP(C13,A21:A22,IF(F11=1,B21:B22,IF(INDEX(A1:A9,SUMPRODUCT((B4:F9=C13)*ROW(A4:A9)))&lt;=C20,C21:C22,IF(INDEX(A1:A9,SUMPRODUCT((B4:G9=C13)*ROW(A4:A9)))&lt;=D20,D21:D22,E21:E22))),"",1)</f>
-        <v/>
+        <v>900</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -1744,7 +1740,7 @@
       </c>
       <c r="C15" s="16" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX(G1:G9,SUMPRODUCT((B4:G9=C13)*ROW(A4:A9))-1)</f>
-        <v>126278</v>
+        <v>138000</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1758,7 +1754,7 @@
       </c>
       <c r="C16" s="16">
         <f>HLOOKUP(C12,B1:F2,2)*5</f>
-        <v>126900</v>
+        <v>120000</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1772,7 +1768,7 @@
       </c>
       <c r="C17" s="17">
         <f ca="1">MIN(C14,C15-C16)</f>
-        <v>-622</v>
+        <v>900</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1857,7 +1853,7 @@
       <c r="G22" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vuIwb+5/mh040VO00ix/HcvbsmhQ00VACknbtNswqrMBMVBJXtXbnphwIbYIQmO6+QaNlhtinkSI/XaVur67hg==" saltValue="8cgQ/d8wz/VIc5kRwQAPkw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rAElB7TtI97HHUw4p/CALPZzO1B2VCShFLSD/ZEG5lkn0hR+prd6PtjIcRyZFXTAaJ3tv+igT2rOMnkXNU9g+g==" saltValue="L+LG9/L16UYMJTFnI9aSlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="F11" name="個人事業主" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>
     <protectedRange sqref="B2:F2" name="当期売上" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>

--- a/R4事業復活支援金計算(仮).xlsx
+++ b/R4事業復活支援金計算(仮).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6870A6BA-2FA4-4B25-A362-190CEEBF91E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03487E13-D5E3-4F61-AD7D-8C19D2DBED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="660" windowWidth="25200" windowHeight="14940" activeTab="1" xr2:uid="{725311F6-54F0-4F61-8F96-4772FDD08828}"/>
+    <workbookView xWindow="720" yWindow="195" windowWidth="25200" windowHeight="14940" xr2:uid="{725311F6-54F0-4F61-8F96-4772FDD08828}"/>
   </bookViews>
   <sheets>
     <sheet name="判定入力" sheetId="1" r:id="rId1"/>
@@ -699,6 +699,13 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -710,13 +717,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDEEA92-7FFE-4A97-B44B-CBE082206B00}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2 D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1125,23 +1125,23 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="24"/>
       <c r="B5" s="9" t="str">
-        <f>IF(B$2&lt;&gt;"",(B$2-B4)/B4*100,"")</f>
-        <v/>
-      </c>
-      <c r="C5" s="10" t="str">
-        <f>IF(C$2&lt;&gt;"",(C$2-C4)/C4*100,"")</f>
-        <v/>
-      </c>
-      <c r="D5" s="10" t="str">
-        <f>IF(D$2&lt;&gt;"",(D$2-D4)/D4*100,"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f>IF(E$2&lt;&gt;"",(E$2-E4)/E4*100,"")</f>
+        <f>IF(AND(B$2&lt;&gt;"",B4&lt;&gt;""),(B$2-B4)/B4*100,"")</f>
+        <v/>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>IF(AND(C$2&lt;&gt;"",C4&lt;&gt;""),(C$2-C4)/C4*100,"")</f>
+        <v/>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>IF(AND(D$2&lt;&gt;"",D4&lt;&gt;""),(D$2-D4)/D4*100,"")</f>
+        <v/>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f>IF(AND(E$2&lt;&gt;"",E4&lt;&gt;""),(E$2-E4)/E4*100,"")</f>
         <v/>
       </c>
       <c r="F5" s="10" t="str">
-        <f>IF(F$2&lt;&gt;"",(F$2-F4)/F4*100,"")</f>
+        <f>IF(AND(F$2&lt;&gt;"",F4&lt;&gt;""),(F$2-F4)/F4*100,"")</f>
         <v/>
       </c>
       <c r="G5" s="5"/>
@@ -1163,23 +1163,23 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="24"/>
       <c r="B7" s="9" t="str">
-        <f>IF(B$2&lt;&gt;"",(B$2-B6)/B6*100,"")</f>
-        <v/>
-      </c>
-      <c r="C7" s="10" t="str">
-        <f>IF(C$2&lt;&gt;"",(C$2-C6)/C6*100,"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="10" t="str">
-        <f>IF(D$2&lt;&gt;"",(D$2-D6)/D6*100,"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f>IF(E$2&lt;&gt;"",(E$2-E6)/E6*100,"")</f>
+        <f>IF(AND(B$2&lt;&gt;"",B6&lt;&gt;""),(B$2-B6)/B6*100,"")</f>
+        <v/>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>IF(AND(C$2&lt;&gt;"",C6&lt;&gt;""),(C$2-C6)/C6*100,"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>IF(AND(D$2&lt;&gt;"",D6&lt;&gt;""),(D$2-D6)/D6*100,"")</f>
+        <v/>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f>IF(AND(E$2&lt;&gt;"",E6&lt;&gt;""),(E$2-E6)/E6*100,"")</f>
         <v/>
       </c>
       <c r="F7" s="10" t="str">
-        <f>IF(F$2&lt;&gt;"",(F$2-F6)/F6*100,"")</f>
+        <f>IF(AND(F$2&lt;&gt;"",F6&lt;&gt;""),(F$2-F6)/F6*100,"")</f>
         <v/>
       </c>
       <c r="G7" s="5"/>
@@ -1201,23 +1201,23 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="24"/>
       <c r="B9" s="9" t="str">
-        <f>IF(B$2&lt;&gt;"",(B$2-B8)/B8*100,"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="10" t="str">
-        <f>IF(C$2&lt;&gt;"",(C$2-C8)/C8*100,"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="10" t="str">
-        <f>IF(D$2&lt;&gt;"",(D$2-D8)/D8*100,"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="10" t="str">
-        <f>IF(E$2&lt;&gt;"",(E$2-E8)/E8*100,"")</f>
+        <f>IF(AND(B$2&lt;&gt;"",B8&lt;&gt;""),(B$2-B8)/B8*100,"")</f>
+        <v/>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f>IF(AND(C$2&lt;&gt;"",C8&lt;&gt;""),(C$2-C8)/C8*100,"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f>IF(AND(D$2&lt;&gt;"",D8&lt;&gt;""),(D$2-D8)/D8*100,"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f>IF(AND(E$2&lt;&gt;"",E8&lt;&gt;""),(E$2-E8)/E8*100,"")</f>
         <v/>
       </c>
       <c r="F9" s="10" t="str">
-        <f>IF(F$2&lt;&gt;"",(F$2-F8)/F8*100,"")</f>
+        <f>IF(AND(F$2&lt;&gt;"",F8&lt;&gt;""),(F$2-F8)/F8*100,"")</f>
         <v/>
       </c>
       <c r="G9" s="5"/>
@@ -1416,7 +1416,7 @@
       <c r="G22" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JAlvFn/0Kwn/iXBTsI7ExUQ5v8X51Iw/dI0pC1fLWBtX5LOgcZwo9H8pIEni+eJS/dFhh4B9p087YCqSBFBRpQ==" saltValue="O2BvFE5XfQ3WchalLMFGZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5ukk4mQpnpoMKwiU0UAwlcxXOhsI+ZmG1F//3V1XTl+r85MUfruF9mqJXGJejzRSS4bHPPckTwcU0tTQN9peNA==" saltValue="LlyEAwPJpg7i/WSqtervOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="F11" name="個人事業主" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>
     <protectedRange sqref="B2:F2" name="当期売上" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0B4AAD-D0B9-45A5-8888-1019F4C1F03B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1538,23 +1538,23 @@
         <v>330000</v>
       </c>
       <c r="B5" s="9">
-        <f>IF(B$2&lt;&gt;"",(B$2-B4)/B4*100,"")</f>
+        <f>IF(AND(B$2&lt;&gt;"",B4&lt;&gt;""),(B$2-B4)/B4*100,"")</f>
         <v>-31.428571428571427</v>
       </c>
-      <c r="C5" s="10">
-        <f>IF(C$2&lt;&gt;"",(C$2-C4)/C4*100,"")</f>
+      <c r="C5" s="9">
+        <f>IF(AND(C$2&lt;&gt;"",C4&lt;&gt;""),(C$2-C4)/C4*100,"")</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="D5" s="10" t="str">
-        <f>IF(D$2&lt;&gt;"",(D$2-D4)/D4*100,"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f>IF(E$2&lt;&gt;"",(E$2-E4)/E4*100,"")</f>
+      <c r="D5" s="9" t="str">
+        <f>IF(AND(D$2&lt;&gt;"",D4&lt;&gt;""),(D$2-D4)/D4*100,"")</f>
+        <v/>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f>IF(AND(E$2&lt;&gt;"",E4&lt;&gt;""),(E$2-E4)/E4*100,"")</f>
         <v/>
       </c>
       <c r="F5" s="10" t="str">
-        <f>IF(F$2&lt;&gt;"",(F$2-F4)/F4*100,"")</f>
+        <f>IF(AND(F$2&lt;&gt;"",F4&lt;&gt;""),(F$2-F4)/F4*100,"")</f>
         <v/>
       </c>
       <c r="G5" s="5"/>
@@ -1588,23 +1588,23 @@
         <v>280000</v>
       </c>
       <c r="B7" s="9">
-        <f>IF(B$2&lt;&gt;"",(B$2-B6)/B6*100,"")</f>
+        <f>IF(AND(B$2&lt;&gt;"",B6&lt;&gt;""),(B$2-B6)/B6*100,"")</f>
         <v>14.285714285714285</v>
       </c>
-      <c r="C7" s="10">
-        <f>IF(C$2&lt;&gt;"",(C$2-C6)/C6*100,"")</f>
+      <c r="C7" s="9">
+        <f>IF(AND(C$2&lt;&gt;"",C6&lt;&gt;""),(C$2-C6)/C6*100,"")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="str">
-        <f>IF(D$2&lt;&gt;"",(D$2-D6)/D6*100,"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="10" t="str">
-        <f>IF(E$2&lt;&gt;"",(E$2-E6)/E6*100,"")</f>
+      <c r="D7" s="9" t="str">
+        <f>IF(AND(D$2&lt;&gt;"",D6&lt;&gt;""),(D$2-D6)/D6*100,"")</f>
+        <v/>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f>IF(AND(E$2&lt;&gt;"",E6&lt;&gt;""),(E$2-E6)/E6*100,"")</f>
         <v/>
       </c>
       <c r="F7" s="10" t="str">
-        <f>IF(F$2&lt;&gt;"",(F$2-F6)/F6*100,"")</f>
+        <f>IF(AND(F$2&lt;&gt;"",F6&lt;&gt;""),(F$2-F6)/F6*100,"")</f>
         <v/>
       </c>
       <c r="G7" s="5"/>
@@ -1638,23 +1638,23 @@
         <v>380000</v>
       </c>
       <c r="B9" s="9">
-        <f>IF(B$2&lt;&gt;"",(B$2-B8)/B8*100,"")</f>
+        <f>IF(AND(B$2&lt;&gt;"",B8&lt;&gt;""),(B$2-B8)/B8*100,"")</f>
         <v>-14.285714285714285</v>
       </c>
-      <c r="C9" s="10">
-        <f>IF(C$2&lt;&gt;"",(C$2-C8)/C8*100,"")</f>
+      <c r="C9" s="9">
+        <f>IF(AND(C$2&lt;&gt;"",C8&lt;&gt;""),(C$2-C8)/C8*100,"")</f>
         <v>-25.925925925925924</v>
       </c>
-      <c r="D9" s="10" t="str">
-        <f>IF(D$2&lt;&gt;"",(D$2-D8)/D8*100,"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="10" t="str">
-        <f>IF(E$2&lt;&gt;"",(E$2-E8)/E8*100,"")</f>
+      <c r="D9" s="9" t="str">
+        <f>IF(AND(D$2&lt;&gt;"",D8&lt;&gt;""),(D$2-D8)/D8*100,"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f>IF(AND(E$2&lt;&gt;"",E8&lt;&gt;""),(E$2-E8)/E8*100,"")</f>
         <v/>
       </c>
       <c r="F9" s="10" t="str">
-        <f>IF(F$2&lt;&gt;"",(F$2-F8)/F8*100,"")</f>
+        <f>IF(AND(F$2&lt;&gt;"",F8&lt;&gt;""),(F$2-F8)/F8*100,"")</f>
         <v/>
       </c>
       <c r="G9" s="5"/>
@@ -1853,7 +1853,7 @@
       <c r="G22" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rAElB7TtI97HHUw4p/CALPZzO1B2VCShFLSD/ZEG5lkn0hR+prd6PtjIcRyZFXTAaJ3tv+igT2rOMnkXNU9g+g==" saltValue="L+LG9/L16UYMJTFnI9aSlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xp0xRrtCIqTWX3JM4Awb0U6vziMwKlfU84tbLeN0YpVhgTkZWPZlVF6ET2e3vTj1tak7nOSvwC6yoFHgGwDbwA==" saltValue="Rn8D2UygYhQXFoFzVhHtfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="F11" name="個人事業主" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>
     <protectedRange sqref="B2:F2" name="当期売上" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>
@@ -1861,20 +1861,20 @@
     <protectedRange sqref="B4:F4 B6:F6 B8:F8" name="過年度月毎売上高" securityDescriptor="O:WDG:WDD:(A;;CC;;;WD)"/>
   </protectedRanges>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B5:F5 B7:F7 B9:F9">
-    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
+  <conditionalFormatting sqref="B9:F9 B7:F7 B5:F5">
+    <cfRule type="top10" dxfId="0" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"受給対象外"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:C17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$D$13&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F11" xr:uid="{E26FFCD2-1C1F-45E1-B739-F37A326BB685}">
       <formula1>"0,1"</formula1>
     </dataValidation>
